--- a/Analytics/E1/Bookings_e1.xlsx
+++ b/Analytics/E1/Bookings_e1.xlsx
@@ -172,7 +172,7 @@
     <t>SUM("TBookings")</t>
   </si>
   <si>
-    <t>SUM("TBookings") / 30</t>
+    <t>SUM("TBookings") / 46</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
         <v>2340.0</v>
       </c>
       <c r="D2" t="n">
-        <v>78.0</v>
+        <v>50.869565217391305</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>2285.0</v>
       </c>
       <c r="D3" t="n">
-        <v>76.16666666666667</v>
+        <v>49.67391304347826</v>
       </c>
     </row>
     <row r="4">
@@ -846,7 +846,7 @@
         <v>2150.0</v>
       </c>
       <c r="D4" t="n">
-        <v>71.66666666666667</v>
+        <v>46.73913043478261</v>
       </c>
     </row>
     <row r="5">
@@ -860,7 +860,7 @@
         <v>2075.0</v>
       </c>
       <c r="D5" t="n">
-        <v>69.16666666666667</v>
+        <v>45.108695652173914</v>
       </c>
     </row>
     <row r="6">
@@ -874,7 +874,7 @@
         <v>2065.0</v>
       </c>
       <c r="D6" t="n">
-        <v>68.83333333333333</v>
+        <v>44.891304347826086</v>
       </c>
     </row>
     <row r="7">
@@ -888,7 +888,7 @@
         <v>2065.0</v>
       </c>
       <c r="D7" t="n">
-        <v>68.83333333333333</v>
+        <v>44.891304347826086</v>
       </c>
     </row>
     <row r="8">
@@ -902,7 +902,7 @@
         <v>2045.0</v>
       </c>
       <c r="D8" t="n">
-        <v>68.16666666666667</v>
+        <v>44.45652173913044</v>
       </c>
     </row>
     <row r="9">
@@ -916,7 +916,7 @@
         <v>2030.0</v>
       </c>
       <c r="D9" t="n">
-        <v>67.66666666666667</v>
+        <v>44.130434782608695</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +930,7 @@
         <v>2010.0</v>
       </c>
       <c r="D10" t="n">
-        <v>67.0</v>
+        <v>43.69565217391305</v>
       </c>
     </row>
     <row r="11">
@@ -944,7 +944,7 @@
         <v>1995.0</v>
       </c>
       <c r="D11" t="n">
-        <v>66.5</v>
+        <v>43.369565217391305</v>
       </c>
     </row>
     <row r="12">
@@ -958,7 +958,7 @@
         <v>1990.0</v>
       </c>
       <c r="D12" t="n">
-        <v>66.33333333333333</v>
+        <v>43.26086956521739</v>
       </c>
     </row>
     <row r="13">
@@ -972,7 +972,7 @@
         <v>1980.0</v>
       </c>
       <c r="D13" t="n">
-        <v>66.0</v>
+        <v>43.04347826086956</v>
       </c>
     </row>
     <row r="14">
@@ -986,7 +986,7 @@
         <v>1970.0</v>
       </c>
       <c r="D14" t="n">
-        <v>65.66666666666667</v>
+        <v>42.82608695652174</v>
       </c>
     </row>
     <row r="15">
@@ -1000,7 +1000,7 @@
         <v>1945.0</v>
       </c>
       <c r="D15" t="n">
-        <v>64.83333333333333</v>
+        <v>42.28260869565217</v>
       </c>
     </row>
     <row r="16">
@@ -1014,7 +1014,7 @@
         <v>1945.0</v>
       </c>
       <c r="D16" t="n">
-        <v>64.83333333333333</v>
+        <v>42.28260869565217</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1028,7 @@
         <v>1880.0</v>
       </c>
       <c r="D17" t="n">
-        <v>62.666666666666664</v>
+        <v>40.869565217391305</v>
       </c>
     </row>
     <row r="18">
@@ -1042,7 +1042,7 @@
         <v>1860.0</v>
       </c>
       <c r="D18" t="n">
-        <v>62.0</v>
+        <v>40.43478260869565</v>
       </c>
     </row>
     <row r="19">
@@ -1056,7 +1056,7 @@
         <v>1820.0</v>
       </c>
       <c r="D19" t="n">
-        <v>60.666666666666664</v>
+        <v>39.56521739130435</v>
       </c>
     </row>
     <row r="20">
@@ -1070,7 +1070,7 @@
         <v>1780.0</v>
       </c>
       <c r="D20" t="n">
-        <v>59.333333333333336</v>
+        <v>38.69565217391305</v>
       </c>
     </row>
     <row r="21">
@@ -1084,7 +1084,7 @@
         <v>1715.0</v>
       </c>
       <c r="D21" t="n">
-        <v>57.166666666666664</v>
+        <v>37.28260869565217</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
         <v>1680.0</v>
       </c>
       <c r="D22" t="n">
-        <v>56.0</v>
+        <v>36.52173913043478</v>
       </c>
     </row>
     <row r="23">
@@ -1112,7 +1112,7 @@
         <v>1660.0</v>
       </c>
       <c r="D23" t="n">
-        <v>55.333333333333336</v>
+        <v>36.08695652173913</v>
       </c>
     </row>
     <row r="24">
@@ -1126,7 +1126,7 @@
         <v>1550.0</v>
       </c>
       <c r="D24" t="n">
-        <v>51.666666666666664</v>
+        <v>33.69565217391305</v>
       </c>
     </row>
     <row r="25">
@@ -1140,7 +1140,7 @@
         <v>1535.0</v>
       </c>
       <c r="D25" t="n">
-        <v>51.166666666666664</v>
+        <v>33.369565217391305</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/E1/Bookings_e1.xlsx
+++ b/Analytics/E1/Bookings_e1.xlsx
@@ -94,76 +94,76 @@
     <t>24</t>
   </si>
   <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
     <t>QPR</t>
   </si>
   <si>
-    <t>Southampton</t>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Sheffield Weds</t>
+  </si>
+  <si>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
   </si>
   <si>
     <t>Leeds</t>
   </si>
   <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
     <t>Stoke</t>
   </si>
   <si>
-    <t>Blackburn</t>
-  </si>
-  <si>
-    <t>Watford</t>
-  </si>
-  <si>
     <t>Hull</t>
   </si>
   <si>
-    <t>Coventry</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Norwich</t>
-  </si>
-  <si>
-    <t>Millwall</t>
-  </si>
-  <si>
-    <t>Huddersfield</t>
-  </si>
-  <si>
-    <t>Swansea</t>
-  </si>
-  <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>Preston</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>West Brom</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
+    <t>Derby</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -240,7 +240,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.0</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="3">
@@ -251,7 +251,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>1180.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="4">
@@ -262,7 +262,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>1155.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="5">
@@ -273,7 +273,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>1080.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="6">
@@ -284,7 +284,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>1055.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="7">
@@ -295,7 +295,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>1040.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="8">
@@ -306,7 +306,7 @@
         <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>1035.0</v>
+        <v>345.0</v>
       </c>
     </row>
     <row r="9">
@@ -317,7 +317,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>1030.0</v>
+        <v>345.0</v>
       </c>
     </row>
     <row r="10">
@@ -328,7 +328,7 @@
         <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>1010.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="11">
@@ -339,7 +339,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>985.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="12">
@@ -350,7 +350,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>975.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="13">
@@ -361,7 +361,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>970.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="14">
@@ -372,7 +372,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>970.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="15">
@@ -383,7 +383,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>960.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="16">
@@ -394,7 +394,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="n">
-        <v>955.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="17">
@@ -405,7 +405,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>955.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="18">
@@ -416,7 +416,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>940.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="19">
@@ -427,7 +427,7 @@
         <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>905.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="20">
@@ -438,7 +438,7 @@
         <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>875.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="21">
@@ -449,7 +449,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>845.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="22">
@@ -460,7 +460,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>830.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="23">
@@ -471,7 +471,7 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>800.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="24">
@@ -482,7 +482,7 @@
         <v>48</v>
       </c>
       <c r="C24" t="n">
-        <v>715.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="25">
@@ -493,7 +493,7 @@
         <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>710.0</v>
+        <v>220.0</v>
       </c>
     </row>
   </sheetData>
@@ -523,10 +523,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>1285.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="3">
@@ -534,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" t="n">
-        <v>1125.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="4">
@@ -545,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
-        <v>1105.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="5">
@@ -556,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>1080.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="6">
@@ -567,10 +567,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>1035.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="7">
@@ -578,10 +578,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C7" t="n">
-        <v>1025.0</v>
+        <v>345.0</v>
       </c>
     </row>
     <row r="8">
@@ -589,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
-        <v>1020.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="9">
@@ -600,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C9" t="n">
-        <v>1010.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>1005.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="11">
@@ -622,10 +622,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>995.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="12">
@@ -633,10 +633,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>980.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="13">
@@ -644,10 +644,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>975.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="14">
@@ -655,10 +655,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n">
-        <v>970.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="15">
@@ -666,10 +666,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>960.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="16">
@@ -677,10 +677,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>950.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="17">
@@ -688,10 +688,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>940.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="18">
@@ -699,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>905.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="19">
@@ -710,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
-        <v>890.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>865.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="21">
@@ -732,10 +732,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C21" t="n">
-        <v>850.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="22">
@@ -743,10 +743,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C22" t="n">
-        <v>835.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="23">
@@ -754,10 +754,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C23" t="n">
-        <v>820.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="24">
@@ -765,10 +765,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>810.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="25">
@@ -776,10 +776,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C25" t="n">
-        <v>750.0</v>
+        <v>235.0</v>
       </c>
     </row>
   </sheetData>
@@ -812,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>2340.0</v>
+        <v>790.0</v>
       </c>
       <c r="D2" t="n">
-        <v>50.869565217391305</v>
+        <v>17.17391304347826</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +826,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>2285.0</v>
+        <v>750.0</v>
       </c>
       <c r="D3" t="n">
-        <v>49.67391304347826</v>
+        <v>16.304347826086957</v>
       </c>
     </row>
     <row r="4">
@@ -843,10 +843,10 @@
         <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>2150.0</v>
+        <v>740.0</v>
       </c>
       <c r="D4" t="n">
-        <v>46.73913043478261</v>
+        <v>16.08695652173913</v>
       </c>
     </row>
     <row r="5">
@@ -854,13 +854,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>2075.0</v>
+        <v>700.0</v>
       </c>
       <c r="D5" t="n">
-        <v>45.108695652173914</v>
+        <v>15.217391304347826</v>
       </c>
     </row>
     <row r="6">
@@ -868,13 +868,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>2065.0</v>
+        <v>675.0</v>
       </c>
       <c r="D6" t="n">
-        <v>44.891304347826086</v>
+        <v>14.673913043478262</v>
       </c>
     </row>
     <row r="7">
@@ -882,13 +882,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>2065.0</v>
+        <v>675.0</v>
       </c>
       <c r="D7" t="n">
-        <v>44.891304347826086</v>
+        <v>14.673913043478262</v>
       </c>
     </row>
     <row r="8">
@@ -896,13 +896,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C8" t="n">
-        <v>2045.0</v>
+        <v>665.0</v>
       </c>
       <c r="D8" t="n">
-        <v>44.45652173913044</v>
+        <v>14.456521739130435</v>
       </c>
     </row>
     <row r="9">
@@ -910,13 +910,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2030.0</v>
+        <v>660.0</v>
       </c>
       <c r="D9" t="n">
-        <v>44.130434782608695</v>
+        <v>14.347826086956522</v>
       </c>
     </row>
     <row r="10">
@@ -924,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>2010.0</v>
+        <v>650.0</v>
       </c>
       <c r="D10" t="n">
-        <v>43.69565217391305</v>
+        <v>14.130434782608695</v>
       </c>
     </row>
     <row r="11">
@@ -938,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C11" t="n">
-        <v>1995.0</v>
+        <v>645.0</v>
       </c>
       <c r="D11" t="n">
-        <v>43.369565217391305</v>
+        <v>14.021739130434783</v>
       </c>
     </row>
     <row r="12">
@@ -952,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>1990.0</v>
+        <v>630.0</v>
       </c>
       <c r="D12" t="n">
-        <v>43.26086956521739</v>
+        <v>13.695652173913043</v>
       </c>
     </row>
     <row r="13">
@@ -966,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>1980.0</v>
+        <v>630.0</v>
       </c>
       <c r="D13" t="n">
-        <v>43.04347826086956</v>
+        <v>13.695652173913043</v>
       </c>
     </row>
     <row r="14">
@@ -980,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>1970.0</v>
+        <v>630.0</v>
       </c>
       <c r="D14" t="n">
-        <v>42.82608695652174</v>
+        <v>13.695652173913043</v>
       </c>
     </row>
     <row r="15">
@@ -994,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>1945.0</v>
+        <v>620.0</v>
       </c>
       <c r="D15" t="n">
-        <v>42.28260869565217</v>
+        <v>13.478260869565217</v>
       </c>
     </row>
     <row r="16">
@@ -1008,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C16" t="n">
-        <v>1945.0</v>
+        <v>610.0</v>
       </c>
       <c r="D16" t="n">
-        <v>42.28260869565217</v>
+        <v>13.26086956521739</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1022,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>1880.0</v>
+        <v>600.0</v>
       </c>
       <c r="D17" t="n">
-        <v>40.869565217391305</v>
+        <v>13.043478260869565</v>
       </c>
     </row>
     <row r="18">
@@ -1036,13 +1036,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>1860.0</v>
+        <v>590.0</v>
       </c>
       <c r="D18" t="n">
-        <v>40.43478260869565</v>
+        <v>12.826086956521738</v>
       </c>
     </row>
     <row r="19">
@@ -1050,13 +1050,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>1820.0</v>
+        <v>585.0</v>
       </c>
       <c r="D19" t="n">
-        <v>39.56521739130435</v>
+        <v>12.717391304347826</v>
       </c>
     </row>
     <row r="20">
@@ -1064,13 +1064,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>1780.0</v>
+        <v>585.0</v>
       </c>
       <c r="D20" t="n">
-        <v>38.69565217391305</v>
+        <v>12.717391304347826</v>
       </c>
     </row>
     <row r="21">
@@ -1078,13 +1078,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>1715.0</v>
+        <v>575.0</v>
       </c>
       <c r="D21" t="n">
-        <v>37.28260869565217</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="22">
@@ -1092,13 +1092,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" t="n">
-        <v>1680.0</v>
+        <v>570.0</v>
       </c>
       <c r="D22" t="n">
-        <v>36.52173913043478</v>
+        <v>12.391304347826088</v>
       </c>
     </row>
     <row r="23">
@@ -1106,13 +1106,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C23" t="n">
-        <v>1660.0</v>
+        <v>555.0</v>
       </c>
       <c r="D23" t="n">
-        <v>36.08695652173913</v>
+        <v>12.065217391304348</v>
       </c>
     </row>
     <row r="24">
@@ -1120,13 +1120,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>1550.0</v>
+        <v>550.0</v>
       </c>
       <c r="D24" t="n">
-        <v>33.69565217391305</v>
+        <v>11.956521739130435</v>
       </c>
     </row>
     <row r="25">
@@ -1134,13 +1134,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C25" t="n">
-        <v>1535.0</v>
+        <v>530.0</v>
       </c>
       <c r="D25" t="n">
-        <v>33.369565217391305</v>
+        <v>11.521739130434783</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/E1/Bookings_e1.xlsx
+++ b/Analytics/E1/Bookings_e1.xlsx
@@ -94,19 +94,28 @@
     <t>24</t>
   </si>
   <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
     <t>Preston</t>
   </si>
   <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
     <t>Luton</t>
   </si>
   <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
     <t>Plymouth</t>
   </si>
   <si>
-    <t>Norwich</t>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Watford</t>
   </si>
   <si>
     <t>West Brom</t>
@@ -118,13 +127,13 @@
     <t>Coventry</t>
   </si>
   <si>
-    <t>Sheffield United</t>
+    <t>Cardiff</t>
   </si>
   <si>
     <t>QPR</t>
   </si>
   <si>
-    <t>Cardiff</t>
+    <t>Burnley</t>
   </si>
   <si>
     <t>Sheffield Weds</t>
@@ -133,34 +142,25 @@
     <t>Swansea</t>
   </si>
   <si>
+    <t>Stoke</t>
+  </si>
+  <si>
     <t>Oxford</t>
   </si>
   <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
     <t>Blackburn</t>
   </si>
   <si>
-    <t>Watford</t>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Hull</t>
   </si>
   <si>
     <t>Bristol City</t>
   </si>
   <si>
-    <t>Burnley</t>
-  </si>
-  <si>
     <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Leeds</t>
-  </si>
-  <si>
-    <t>Stoke</t>
-  </si>
-  <si>
-    <t>Hull</t>
   </si>
   <si>
     <t>Derby</t>
@@ -240,7 +240,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>420.0</v>
+        <v>465.0</v>
       </c>
     </row>
     <row r="3">
@@ -251,7 +251,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>415.0</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="4">
@@ -273,7 +273,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>370.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="6">
@@ -284,7 +284,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>355.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="7">
@@ -295,7 +295,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>350.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="8">
@@ -306,7 +306,7 @@
         <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>345.0</v>
+        <v>365.0</v>
       </c>
     </row>
     <row r="9">
@@ -317,7 +317,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>345.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="10">
@@ -328,7 +328,7 @@
         <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>335.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="11">
@@ -339,7 +339,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>325.0</v>
+        <v>345.0</v>
       </c>
     </row>
     <row r="12">
@@ -350,7 +350,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>310.0</v>
+        <v>345.0</v>
       </c>
     </row>
     <row r="13">
@@ -361,7 +361,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>310.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="14">
@@ -372,7 +372,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>310.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="15">
@@ -383,7 +383,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>295.0</v>
+        <v>315.0</v>
       </c>
     </row>
     <row r="16">
@@ -394,7 +394,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="n">
-        <v>295.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="17">
@@ -405,7 +405,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>295.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="18">
@@ -416,7 +416,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>290.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="19">
@@ -427,7 +427,7 @@
         <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>285.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="20">
@@ -438,7 +438,7 @@
         <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>275.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="21">
@@ -449,7 +449,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>275.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="22">
@@ -460,7 +460,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>265.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="23">
@@ -471,7 +471,7 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>260.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="24">
@@ -482,7 +482,7 @@
         <v>48</v>
       </c>
       <c r="C24" t="n">
-        <v>260.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="25">
@@ -493,7 +493,7 @@
         <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>220.0</v>
+        <v>270.0</v>
       </c>
     </row>
   </sheetData>
@@ -523,10 +523,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" t="n">
-        <v>495.0</v>
+        <v>525.0</v>
       </c>
     </row>
     <row r="3">
@@ -534,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>390.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="4">
@@ -545,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>370.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="5">
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
         <v>370.0</v>
@@ -567,10 +567,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
-        <v>350.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="7">
@@ -578,10 +578,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>345.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="8">
@@ -589,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>335.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="9">
@@ -600,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
-        <v>330.0</v>
+        <v>345.0</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>330.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="11">
@@ -622,10 +622,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>320.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="12">
@@ -633,10 +633,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C12" t="n">
-        <v>320.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="13">
@@ -644,10 +644,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C13" t="n">
-        <v>320.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="14">
@@ -655,10 +655,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>310.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="15">
@@ -666,10 +666,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>305.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="16">
@@ -677,10 +677,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>300.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="17">
@@ -688,10 +688,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>300.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="18">
@@ -699,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>290.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="19">
@@ -710,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C19" t="n">
-        <v>285.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>285.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="21">
@@ -732,7 +732,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C21" t="n">
         <v>285.0</v>
@@ -743,10 +743,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" t="n">
-        <v>250.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="23">
@@ -754,10 +754,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>245.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="24">
@@ -765,10 +765,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C24" t="n">
-        <v>240.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="25">
@@ -776,10 +776,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="n">
-        <v>235.0</v>
+        <v>280.0</v>
       </c>
     </row>
   </sheetData>
@@ -812,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" t="n">
-        <v>790.0</v>
+        <v>820.0</v>
       </c>
       <c r="D2" t="n">
-        <v>17.17391304347826</v>
+        <v>17.82608695652174</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>750.0</v>
@@ -843,10 +843,10 @@
         <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>740.0</v>
+        <v>750.0</v>
       </c>
       <c r="D4" t="n">
-        <v>16.08695652173913</v>
+        <v>16.304347826086957</v>
       </c>
     </row>
     <row r="5">
@@ -854,13 +854,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>700.0</v>
+        <v>730.0</v>
       </c>
       <c r="D5" t="n">
-        <v>15.217391304347826</v>
+        <v>15.869565217391305</v>
       </c>
     </row>
     <row r="6">
@@ -868,13 +868,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>675.0</v>
+        <v>725.0</v>
       </c>
       <c r="D6" t="n">
-        <v>14.673913043478262</v>
+        <v>15.76086956521739</v>
       </c>
     </row>
     <row r="7">
@@ -882,13 +882,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>675.0</v>
+        <v>705.0</v>
       </c>
       <c r="D7" t="n">
-        <v>14.673913043478262</v>
+        <v>15.326086956521738</v>
       </c>
     </row>
     <row r="8">
@@ -896,13 +896,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>665.0</v>
+        <v>700.0</v>
       </c>
       <c r="D8" t="n">
-        <v>14.456521739130435</v>
+        <v>15.217391304347826</v>
       </c>
     </row>
     <row r="9">
@@ -910,13 +910,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>660.0</v>
+        <v>700.0</v>
       </c>
       <c r="D9" t="n">
-        <v>14.347826086956522</v>
+        <v>15.217391304347826</v>
       </c>
     </row>
     <row r="10">
@@ -924,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>650.0</v>
+        <v>695.0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.130434782608695</v>
+        <v>15.108695652173912</v>
       </c>
     </row>
     <row r="11">
@@ -938,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>645.0</v>
+        <v>680.0</v>
       </c>
       <c r="D11" t="n">
-        <v>14.021739130434783</v>
+        <v>14.782608695652174</v>
       </c>
     </row>
     <row r="12">
@@ -952,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>630.0</v>
+        <v>660.0</v>
       </c>
       <c r="D12" t="n">
-        <v>13.695652173913043</v>
+        <v>14.347826086956522</v>
       </c>
     </row>
     <row r="13">
@@ -966,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>630.0</v>
+        <v>660.0</v>
       </c>
       <c r="D13" t="n">
-        <v>13.695652173913043</v>
+        <v>14.347826086956522</v>
       </c>
     </row>
     <row r="14">
@@ -980,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n">
-        <v>630.0</v>
+        <v>655.0</v>
       </c>
       <c r="D14" t="n">
-        <v>13.695652173913043</v>
+        <v>14.23913043478261</v>
       </c>
     </row>
     <row r="15">
@@ -994,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C15" t="n">
-        <v>620.0</v>
+        <v>640.0</v>
       </c>
       <c r="D15" t="n">
-        <v>13.478260869565217</v>
+        <v>13.91304347826087</v>
       </c>
     </row>
     <row r="16">
@@ -1008,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>610.0</v>
+        <v>640.0</v>
       </c>
       <c r="D16" t="n">
-        <v>13.26086956521739</v>
+        <v>13.91304347826087</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1022,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C17" t="n">
-        <v>600.0</v>
+        <v>630.0</v>
       </c>
       <c r="D17" t="n">
-        <v>13.043478260869565</v>
+        <v>13.695652173913043</v>
       </c>
     </row>
     <row r="18">
@@ -1036,13 +1036,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>590.0</v>
+        <v>625.0</v>
       </c>
       <c r="D18" t="n">
-        <v>12.826086956521738</v>
+        <v>13.58695652173913</v>
       </c>
     </row>
     <row r="19">
@@ -1050,13 +1050,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>585.0</v>
+        <v>605.0</v>
       </c>
       <c r="D19" t="n">
-        <v>12.717391304347826</v>
+        <v>13.152173913043478</v>
       </c>
     </row>
     <row r="20">
@@ -1064,13 +1064,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>585.0</v>
+        <v>605.0</v>
       </c>
       <c r="D20" t="n">
-        <v>12.717391304347826</v>
+        <v>13.152173913043478</v>
       </c>
     </row>
     <row r="21">
@@ -1078,13 +1078,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>575.0</v>
+        <v>600.0</v>
       </c>
       <c r="D21" t="n">
-        <v>12.5</v>
+        <v>13.043478260869565</v>
       </c>
     </row>
     <row r="22">
@@ -1092,13 +1092,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>570.0</v>
+        <v>600.0</v>
       </c>
       <c r="D22" t="n">
-        <v>12.391304347826088</v>
+        <v>13.043478260869565</v>
       </c>
     </row>
     <row r="23">
@@ -1106,13 +1106,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>555.0</v>
+        <v>600.0</v>
       </c>
       <c r="D23" t="n">
-        <v>12.065217391304348</v>
+        <v>13.043478260869565</v>
       </c>
     </row>
     <row r="24">
@@ -1120,13 +1120,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C24" t="n">
-        <v>550.0</v>
+        <v>595.0</v>
       </c>
       <c r="D24" t="n">
-        <v>11.956521739130435</v>
+        <v>12.934782608695652</v>
       </c>
     </row>
     <row r="25">
@@ -1134,13 +1134,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>530.0</v>
+        <v>400.0</v>
       </c>
       <c r="D25" t="n">
-        <v>11.521739130434783</v>
+        <v>8.695652173913043</v>
       </c>
     </row>
   </sheetData>
